--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/107.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/107.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1180521258791989</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.79051153797616</v>
+        <v>-1.793643480651261</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1199894277793993</v>
+        <v>-0.1161255802922004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03620210872562708</v>
+        <v>0.03817825171829078</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.111695968720765</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.719809533127525</v>
+        <v>-1.720195612915907</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.170574418946853</v>
+        <v>-0.1749237632927434</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01431815484390676</v>
+        <v>0.01754219554119699</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1170761326061582</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.723692288155703</v>
+        <v>-1.717321056766393</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2674877648787357</v>
+        <v>-0.2729819303348822</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04416645292260322</v>
+        <v>0.04959108742160045</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1337073467310387</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.748747829556514</v>
+        <v>-1.740978659976097</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3221994793450667</v>
+        <v>-0.3275655614590962</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08340630958186628</v>
+        <v>0.08790081504882272</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1539408844187868</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.715787106264372</v>
+        <v>-1.715902991192954</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3928630591910665</v>
+        <v>-0.3983669833780409</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1251809965736942</v>
+        <v>0.1316656732088796</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1706254425835265</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.594711142802438</v>
+        <v>-1.597746718010613</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3880373667966359</v>
+        <v>-0.4006621148846439</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1238818655322209</v>
+        <v>0.1332898919710597</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1798632955547182</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.302848850961573</v>
+        <v>-1.300174348794033</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4976382826462316</v>
+        <v>-0.5206786461310663</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1528768845841468</v>
+        <v>0.162864945586573</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1793210613361426</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8462366156795539</v>
+        <v>-0.8432791103180025</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.567876747780538</v>
+        <v>-0.5985606371863793</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1657840259454892</v>
+        <v>0.1769797298878766</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1667568915237311</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2371759270857107</v>
+        <v>-0.2237302257667998</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5509288819357396</v>
+        <v>-0.5970956077208305</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2149167959816058</v>
+        <v>0.2305130776067304</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1379897631453717</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5055995012336395</v>
+        <v>0.5305208600855651</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7073021748024371</v>
+        <v>-0.7622975023834559</v>
       </c>
       <c r="G11" t="n">
-        <v>0.31393985753436</v>
+        <v>0.3280381739773913</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09263230824032705</v>
       </c>
       <c r="E12" t="n">
-        <v>1.236044163231174</v>
+        <v>1.268272371790542</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8280981846737434</v>
+        <v>-0.8649867971241427</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4497551640705873</v>
+        <v>0.4591296448722049</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0318889927453742</v>
       </c>
       <c r="E13" t="n">
-        <v>2.079892596497829</v>
+        <v>2.119921690512804</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8575524739952606</v>
+        <v>-0.8946801753509451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5091480197309597</v>
+        <v>0.5119725623849799</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03813768188589261</v>
       </c>
       <c r="E14" t="n">
-        <v>2.817021989112522</v>
+        <v>2.86911043474816</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.005639994468336</v>
+        <v>-1.039449117421834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6469010442572155</v>
+        <v>0.6511552409775332</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1121962209928898</v>
       </c>
       <c r="E15" t="n">
-        <v>3.597554556925961</v>
+        <v>3.65194972256106</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.159643745505867</v>
+        <v>-1.185763598487602</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7477892432394653</v>
+        <v>0.7512121180773754</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.189082953483161</v>
       </c>
       <c r="E16" t="n">
-        <v>4.418627332281489</v>
+        <v>4.464307951287212</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.296699020777923</v>
+        <v>-1.313725566390022</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8424635703670058</v>
+        <v>0.8411052770198879</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2732727654965414</v>
       </c>
       <c r="E17" t="n">
-        <v>5.066014216360827</v>
+        <v>5.100239305215868</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.437196078428868</v>
+        <v>-1.457235022263426</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9719015463071554</v>
+        <v>0.9681029603323685</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3657929670064155</v>
       </c>
       <c r="E18" t="n">
-        <v>5.638787064370868</v>
+        <v>5.67297433814395</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.594697114626873</v>
+        <v>-1.60559456735833</v>
       </c>
       <c r="G18" t="n">
-        <v>1.093926546342109</v>
+        <v>1.094909738473027</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.463761184332192</v>
       </c>
       <c r="E19" t="n">
-        <v>6.141942346495532</v>
+        <v>6.182716763577493</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.812482710514655</v>
+        <v>-1.833345047262823</v>
       </c>
       <c r="G19" t="n">
-        <v>1.267600239204765</v>
+        <v>1.263978530226235</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5608667951799409</v>
       </c>
       <c r="E20" t="n">
-        <v>6.605099030639058</v>
+        <v>6.640225582254332</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.015301462915717</v>
+        <v>-2.039711098319851</v>
       </c>
       <c r="G20" t="n">
-        <v>1.41426054529425</v>
+        <v>1.406362682451039</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6529566425188793</v>
       </c>
       <c r="E21" t="n">
-        <v>6.949556612197938</v>
+        <v>6.979147523751046</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.319979408016412</v>
+        <v>-2.335470783285136</v>
       </c>
       <c r="G21" t="n">
-        <v>1.551816565441916</v>
+        <v>1.546215663867339</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7377440212439738</v>
       </c>
       <c r="E22" t="n">
-        <v>7.294392344576401</v>
+        <v>7.316229944486689</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.512080634285657</v>
+        <v>-2.532536153942433</v>
       </c>
       <c r="G22" t="n">
-        <v>1.736095559031867</v>
+        <v>1.725335948373355</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8144779448286644</v>
       </c>
       <c r="E23" t="n">
-        <v>7.536807757232624</v>
+        <v>7.54719714604035</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.743031977901723</v>
+        <v>-2.762375002244111</v>
       </c>
       <c r="G23" t="n">
-        <v>1.883096200858977</v>
+        <v>1.875940611479369</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.881985814536363</v>
       </c>
       <c r="E24" t="n">
-        <v>7.691804459131901</v>
+        <v>7.690843224145346</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.934046325525003</v>
+        <v>-2.952794067286885</v>
       </c>
       <c r="G24" t="n">
-        <v>2.016093673868629</v>
+        <v>2.003756808340045</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9384665821807551</v>
       </c>
       <c r="E25" t="n">
-        <v>7.854383694884509</v>
+        <v>7.8547118322086</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.088912809359794</v>
+        <v>-3.106394660757085</v>
       </c>
       <c r="G25" t="n">
-        <v>2.12441619597976</v>
+        <v>2.11067956249804</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9812515418188879</v>
       </c>
       <c r="E26" t="n">
-        <v>7.974147718970758</v>
+        <v>7.970866345729854</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.177959093442642</v>
+        <v>-3.192497772614286</v>
       </c>
       <c r="G26" t="n">
-        <v>2.165709655557634</v>
+        <v>2.149385738565149</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.007896511651573</v>
       </c>
       <c r="E27" t="n">
-        <v>7.883796509600008</v>
+        <v>7.877228883752784</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.242960169725713</v>
+        <v>-3.250081908507762</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207147666335897</v>
+        <v>2.191658120829203</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.017931526055572</v>
       </c>
       <c r="E28" t="n">
-        <v>7.811059809373742</v>
+        <v>7.796685198864143</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.305385246030538</v>
+        <v>-3.312057778234162</v>
       </c>
       <c r="G28" t="n">
-        <v>2.248535663618667</v>
+        <v>2.23804136845454</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.012616503860222</v>
       </c>
       <c r="E29" t="n">
-        <v>7.824231656308792</v>
+        <v>7.813714184158949</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.331942412137502</v>
+        <v>-3.338248686974739</v>
       </c>
       <c r="G29" t="n">
-        <v>2.192891380437588</v>
+        <v>2.176314956284929</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9939221545979824</v>
       </c>
       <c r="E30" t="n">
-        <v>7.666931893934115</v>
+        <v>7.638176573708151</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.25810206044666</v>
+        <v>-3.260075763756617</v>
       </c>
       <c r="G30" t="n">
-        <v>2.191615426381831</v>
+        <v>2.175912408638276</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9639348127112575</v>
       </c>
       <c r="E31" t="n">
-        <v>7.44291046904726</v>
+        <v>7.406975162614618</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.23687072168906</v>
+        <v>-3.237241858420862</v>
       </c>
       <c r="G31" t="n">
-        <v>2.145688399422702</v>
+        <v>2.134742153037105</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9245287410158409</v>
       </c>
       <c r="E32" t="n">
-        <v>7.198139542737437</v>
+        <v>7.159282716263172</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.195144523391034</v>
+        <v>-3.194544361445114</v>
       </c>
       <c r="G32" t="n">
-        <v>2.057030329850605</v>
+        <v>2.045274718726962</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8780531144587094</v>
       </c>
       <c r="E33" t="n">
-        <v>7.007296582824323</v>
+        <v>6.970450054900619</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.117363779168061</v>
+        <v>-3.114181822997466</v>
       </c>
       <c r="G33" t="n">
-        <v>1.989163846228171</v>
+        <v>1.980997618287192</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8259740305026313</v>
       </c>
       <c r="E34" t="n">
-        <v>6.698253435440142</v>
+        <v>6.647597083553509</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.988283521704824</v>
+        <v>-2.98143472242562</v>
       </c>
       <c r="G34" t="n">
-        <v>1.808402875101703</v>
+        <v>1.799826780465948</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7703046164042745</v>
       </c>
       <c r="E35" t="n">
-        <v>6.440120366944122</v>
+        <v>6.390924165157624</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.934764812082212</v>
+        <v>-2.928334418387257</v>
       </c>
       <c r="G35" t="n">
-        <v>1.763494415672743</v>
+        <v>1.748335447172847</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7125169006726204</v>
       </c>
       <c r="E36" t="n">
-        <v>6.023817789188382</v>
+        <v>5.973104104758134</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.810656932936164</v>
+        <v>-2.804847438490139</v>
       </c>
       <c r="G36" t="n">
-        <v>1.692830225906067</v>
+        <v>1.67971571151463</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6551433596125433</v>
       </c>
       <c r="E37" t="n">
-        <v>5.632924506825965</v>
+        <v>5.588832121262495</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.689365057554661</v>
+        <v>-2.690002424661863</v>
       </c>
       <c r="G37" t="n">
-        <v>1.523434516670122</v>
+        <v>1.509047707746989</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6001663215633974</v>
       </c>
       <c r="E38" t="n">
-        <v>5.289798992025103</v>
+        <v>5.254291849907538</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.596770559934832</v>
+        <v>-2.597376821087519</v>
       </c>
       <c r="G38" t="n">
-        <v>1.471369857940877</v>
+        <v>1.454794653629572</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5494376520521498</v>
       </c>
       <c r="E39" t="n">
-        <v>4.924834657472601</v>
+        <v>4.886101034975038</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.496167193908623</v>
+        <v>-2.499188740941233</v>
       </c>
       <c r="G39" t="n">
-        <v>1.332212796016747</v>
+        <v>1.317522246596594</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5039196271635875</v>
       </c>
       <c r="E40" t="n">
-        <v>4.573659409580018</v>
+        <v>4.533824270340249</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.49142445072623</v>
+        <v>-2.498414141681763</v>
       </c>
       <c r="G40" t="n">
-        <v>1.197086699845245</v>
+        <v>1.183641608447011</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4639346273936892</v>
       </c>
       <c r="E41" t="n">
-        <v>4.186733051299171</v>
+        <v>4.146266034238291</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.370339338454146</v>
+        <v>-2.369719049125893</v>
       </c>
       <c r="G41" t="n">
-        <v>1.14761420399218</v>
+        <v>1.138362317246589</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4291989772966836</v>
       </c>
       <c r="E42" t="n">
-        <v>3.809472715903427</v>
+        <v>3.772756711004547</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.298225367238839</v>
+        <v>-2.301127369818806</v>
       </c>
       <c r="G42" t="n">
-        <v>1.048585653153335</v>
+        <v>1.032112915515724</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3982725716868041</v>
       </c>
       <c r="E43" t="n">
-        <v>3.473916316701009</v>
+        <v>3.442579812171047</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.206054764489349</v>
+        <v>-2.210556589004427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9113803373947992</v>
+        <v>0.9056342746991557</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3697354561210165</v>
       </c>
       <c r="E44" t="n">
-        <v>3.139611474727277</v>
+        <v>3.107050249478405</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.156113239635864</v>
+        <v>-2.154637841518811</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9015953799777301</v>
+        <v>0.8932187294032722</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3415034406948677</v>
       </c>
       <c r="E45" t="n">
-        <v>2.808431866301202</v>
+        <v>2.783989905101201</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.151604096072666</v>
+        <v>-2.149130257807776</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7927696733082811</v>
+        <v>0.7820240908253338</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3131775127349355</v>
       </c>
       <c r="E46" t="n">
-        <v>2.593825176980631</v>
+        <v>2.564838086897502</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.135710783077965</v>
+        <v>-2.134254902422568</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7206618012997419</v>
+        <v>0.7109305169022266</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.284508209171447</v>
       </c>
       <c r="E47" t="n">
-        <v>2.343238047097338</v>
+        <v>2.318886354157495</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.098764838083952</v>
+        <v>-2.09997492070662</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6758619077512436</v>
+        <v>0.6722993610783582</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2563535796486361</v>
       </c>
       <c r="E48" t="n">
-        <v>2.095571827334991</v>
+        <v>2.065380753835962</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.096720383975492</v>
+        <v>-2.09190445031189</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6184842300068468</v>
+        <v>0.6205524710216994</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2286278201497205</v>
       </c>
       <c r="E49" t="n">
-        <v>1.933857459102011</v>
+        <v>1.904215314212055</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.047463800041996</v>
+        <v>-2.046339106314072</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5656925458309187</v>
+        <v>0.565415641843675</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2021885778458792</v>
       </c>
       <c r="E50" t="n">
-        <v>1.784359192103618</v>
+        <v>1.753448412206026</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.0415774555907</v>
+        <v>-2.038707168885924</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5295846318467569</v>
+        <v>0.5364858843041611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1769743981268801</v>
       </c>
       <c r="E51" t="n">
-        <v>1.571366962814398</v>
+        <v>1.538764262959508</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.987246941547337</v>
+        <v>-1.985826436291191</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4499033747950371</v>
+        <v>0.454227102472504</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1538236127015964</v>
       </c>
       <c r="E52" t="n">
-        <v>1.467354750125845</v>
+        <v>1.435791355104133</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.950724281502986</v>
+        <v>-1.954169723405936</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4038708315588309</v>
+        <v>0.4117900416257277</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1327047126064553</v>
       </c>
       <c r="E53" t="n">
-        <v>1.312546513715683</v>
+        <v>1.278069527621146</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.877031835576256</v>
+        <v>-1.880926789017969</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3631165418592024</v>
+        <v>0.3669389147403825</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1138719389917332</v>
       </c>
       <c r="E54" t="n">
-        <v>1.207428514840186</v>
+        <v>1.176094449992931</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.898471157284627</v>
+        <v>-1.899281741864025</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2827088692814756</v>
+        <v>0.2868837763138161</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09713156479849575</v>
       </c>
       <c r="E55" t="n">
-        <v>1.197775300289294</v>
+        <v>1.164792619852789</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.926349411577427</v>
+        <v>-1.937153546445342</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2332705289863083</v>
+        <v>0.234774593375169</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08224689787213173</v>
       </c>
       <c r="E56" t="n">
-        <v>1.112787733349866</v>
+        <v>1.082942484874553</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.922765517680855</v>
+        <v>-1.932891420756227</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1684005856487384</v>
+        <v>0.1754811547851066</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.06876709680719165</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9822775168599934</v>
+        <v>0.9512209659206591</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.870002499776734</v>
+        <v>-1.879963114348707</v>
       </c>
       <c r="G57" t="n">
-        <v>0.143873235553992</v>
+        <v>0.1496723613485125</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05651250833551202</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8851628971047839</v>
+        <v>0.8526083809833563</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.887997599423509</v>
+        <v>-1.902749750832014</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1023022620681979</v>
+        <v>0.1038423117769867</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04501881324727746</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7232936090199098</v>
+        <v>0.6947657892063729</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.899082297802728</v>
+        <v>-1.906981990407969</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08071411971470034</v>
+        <v>0.08472617792634907</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.03412388483525103</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6281038989205171</v>
+        <v>0.5983812445012308</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.896713365894239</v>
+        <v>-1.910951354172245</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02830729548580022</v>
+        <v>0.02950091025019616</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02358894394398927</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5174844155407521</v>
+        <v>0.4800840796425612</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.893049572389013</v>
+        <v>-1.905896941524034</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01464690208867396</v>
+        <v>0.01329592778967701</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01302245542981964</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3945097690121017</v>
+        <v>0.3520470914969019</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.86866982309804</v>
+        <v>-1.881603191048483</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02694968806554359</v>
+        <v>-0.02434410693447589</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.002306241483113213</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3098625378102992</v>
+        <v>0.2645923954200281</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.85823042079482</v>
+        <v>-1.873837680992126</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06785889761706608</v>
+        <v>-0.06331925802003029</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.008241516614819356</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1799921281103352</v>
+        <v>0.1316973890840705</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.869455400929691</v>
+        <v>-1.883045043528315</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.07606903984677169</v>
+        <v>-0.07725167603898617</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.01884559036379699</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1208487300067528</v>
+        <v>0.0725149560571762</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.873160059120259</v>
+        <v>-1.881959384723703</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1247083840553991</v>
+        <v>-0.1224041037386449</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.0292583825865715</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.02431788034537572</v>
+        <v>-0.08808508709938517</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.843786279328073</v>
+        <v>-1.858193825554215</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1407706450775592</v>
+        <v>-0.1430511384879202</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.03904994304479784</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1128972701501729</v>
+        <v>-0.1740491370422867</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.837812106299325</v>
+        <v>-1.843672834082198</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1664806313645201</v>
+        <v>-0.167035049259684</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.0477075407597085</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.1402003692447997</v>
+        <v>-0.1976939319177787</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.839091719879143</v>
+        <v>-1.849462811066567</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2048171955015193</v>
+        <v>-0.2030282981566172</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.05510241444378482</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1267754052288982</v>
+        <v>-0.1702151756682484</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.78873910848953</v>
+        <v>-1.795165842660424</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1846093036395026</v>
+        <v>-0.1831424444119235</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.06092518473939593</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.1807070311496685</v>
+        <v>-0.2304308143215539</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.824882397872943</v>
+        <v>-1.822884907656593</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2206354882529801</v>
+        <v>-0.2220999077978522</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06476732982072693</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1022413460067076</v>
+        <v>-0.1438098798097947</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.819079002633685</v>
+        <v>-1.832624730943583</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2164642407447002</v>
+        <v>-0.2132816746534288</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06612888689754262</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.04932584793339959</v>
+        <v>-0.07811959316199867</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.854966735253541</v>
+        <v>-1.866247828090673</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2220822200982265</v>
+        <v>-0.2183025416644188</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.06431337931969326</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1321944744356202</v>
+        <v>0.1084996660646349</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.870524591876031</v>
+        <v>-1.88186057757407</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2065164345069393</v>
+        <v>-0.1947498448111158</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.05844460721367312</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2602942844109846</v>
+        <v>0.2364445561881052</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.889021656239769</v>
+        <v>-1.900246026453964</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2110621733107426</v>
+        <v>-0.2005227440165362</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.04854817593020806</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4010194523950337</v>
+        <v>0.3862404644767515</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.919579292065523</v>
+        <v>-1.933601978344638</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2229812431757532</v>
+        <v>-0.2163148101788969</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.03496804004943709</v>
       </c>
       <c r="E76" t="n">
-        <v>0.549161865729016</v>
+        <v>0.5414244120237901</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.980818987535089</v>
+        <v>-1.999237372131527</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1956366694751075</v>
+        <v>-0.1880236395879382</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.01834295419021241</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7810024736917808</v>
+        <v>0.774329941488157</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.969848954243098</v>
+        <v>-1.97850433856683</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.120316955182813</v>
+        <v>-0.1076507324887861</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.001290993069153789</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9614334777321285</v>
+        <v>0.9629564496619685</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.008162951315058</v>
+        <v>-2.018163820651696</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07178434709261658</v>
+        <v>-0.06168345076499199</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.0235581408464763</v>
       </c>
       <c r="E79" t="n">
-        <v>1.202999270885641</v>
+        <v>1.201676352937775</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.975373005812405</v>
+        <v>-1.984467533023396</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.02889594494504664</v>
+        <v>-0.01013356508692288</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.04855339490159202</v>
       </c>
       <c r="E80" t="n">
-        <v>1.369513104923952</v>
+        <v>1.373438554399502</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.007773212002616</v>
+        <v>-2.011666335682299</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.01404132686284769</v>
+        <v>-0.0009530390605111167</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.07594971060435778</v>
       </c>
       <c r="E81" t="n">
-        <v>1.655429280087199</v>
+        <v>1.665011133918911</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.99139135254584</v>
+        <v>-1.989955599272775</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01169557194007466</v>
+        <v>0.001884921848397597</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1048258291120083</v>
       </c>
       <c r="E82" t="n">
-        <v>1.892535943173007</v>
+        <v>1.908406079181991</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.919826309939606</v>
+        <v>-1.916630325593447</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06775147557177387</v>
+        <v>0.08745252335141289</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1335047056250067</v>
       </c>
       <c r="E83" t="n">
-        <v>2.152074268908255</v>
+        <v>2.171508781352154</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.876884234772483</v>
+        <v>-1.874447601668874</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08632538994078248</v>
+        <v>0.1033098510261856</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1598841133295724</v>
       </c>
       <c r="E84" t="n">
-        <v>2.351115782558216</v>
+        <v>2.352151427867334</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.834841792603562</v>
+        <v>-1.827550190913039</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08161924199899447</v>
+        <v>0.09273992569814181</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1820822510129357</v>
       </c>
       <c r="E85" t="n">
-        <v>2.534120041933763</v>
+        <v>2.546364809440158</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.712400826667067</v>
+        <v>-1.708271053764805</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09254963044699641</v>
+        <v>0.1000437258021998</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.19858652488212</v>
       </c>
       <c r="E86" t="n">
-        <v>2.697738582519551</v>
+        <v>2.710633525467359</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.542299439208124</v>
+        <v>-1.540132391043638</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05934371904280189</v>
+        <v>0.06413464595865789</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2083787179498906</v>
       </c>
       <c r="E87" t="n">
-        <v>2.801214065012566</v>
+        <v>2.815428876304856</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.361790365321152</v>
+        <v>-1.357632536067761</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1154265351904626</v>
+        <v>0.1158479903780955</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2105673092210562</v>
       </c>
       <c r="E88" t="n">
-        <v>2.906864524638864</v>
+        <v>2.928117820540828</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.192374528702874</v>
+        <v>-1.190904009951235</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07252105526394369</v>
+        <v>0.065509407164048</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2054220973616921</v>
       </c>
       <c r="E89" t="n">
-        <v>2.864566525706387</v>
+        <v>2.882022455474916</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.01426488275823</v>
+        <v>-1.011297618665851</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08272258850323171</v>
+        <v>0.07726257860498309</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1930287358166761</v>
       </c>
       <c r="E90" t="n">
-        <v>2.8421360828983</v>
+        <v>2.852943877290276</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.8028389297668993</v>
+        <v>-0.7966866599005417</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02368714635943368</v>
+        <v>0.009360109662621794</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1728583882915092</v>
       </c>
       <c r="E91" t="n">
-        <v>2.793364385902819</v>
+        <v>2.809571198125368</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5434183187222641</v>
+        <v>-0.5338303656837846</v>
       </c>
       <c r="G91" t="n">
-        <v>0.001609847623184223</v>
+        <v>-0.01328990458909408</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1450206258245515</v>
       </c>
       <c r="E92" t="n">
-        <v>2.704012226600581</v>
+        <v>2.718084316454513</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3246952747543198</v>
+        <v>-0.3143748069830659</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05019376505641208</v>
+        <v>-0.06071611657166957</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1108115716193658</v>
       </c>
       <c r="E93" t="n">
-        <v>2.61512970621944</v>
+        <v>2.629051755586892</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09859463028043096</v>
+        <v>-0.0874025858621041</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0907784968079046</v>
+        <v>-0.105336693441204</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07316865144778047</v>
       </c>
       <c r="E94" t="n">
-        <v>2.525711675484115</v>
+        <v>2.538927436707892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09089125612691844</v>
+        <v>0.1032451994344504</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1470894232886691</v>
+        <v>-0.1589682383890142</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.03650054651859568</v>
       </c>
       <c r="E95" t="n">
-        <v>2.313162858526891</v>
+        <v>2.328108354789925</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1969552419720522</v>
+        <v>0.2075251673000961</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.161718980641148</v>
+        <v>-0.1747517656619005</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.004690841201171932</v>
       </c>
       <c r="E96" t="n">
-        <v>2.172932336211685</v>
+        <v>2.18126629233877</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2809059437610084</v>
+        <v>0.2894137272809671</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2374997949650639</v>
+        <v>-0.2491041457608725</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02008122025515492</v>
       </c>
       <c r="E97" t="n">
-        <v>1.981358691327826</v>
+        <v>1.989663981183105</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3794489977411619</v>
+        <v>0.3914985906309965</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1980550049584135</v>
+        <v>-0.2126644349285597</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03837632690929171</v>
       </c>
       <c r="E98" t="n">
-        <v>1.832184292208787</v>
+        <v>1.847953791306107</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4174464459818891</v>
+        <v>0.4305530314045282</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.293613107146562</v>
+        <v>-0.3072484937959416</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05188500890104505</v>
       </c>
       <c r="E99" t="n">
-        <v>1.703411129806292</v>
+        <v>1.712364765340954</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4219366820041083</v>
+        <v>0.4305237552120443</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2726544029314685</v>
+        <v>-0.2827455405282651</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.06535980878185539</v>
       </c>
       <c r="E100" t="n">
-        <v>1.484411181851104</v>
+        <v>1.497650120060598</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4150006640681295</v>
+        <v>0.4220909919353256</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3862265123073709</v>
+        <v>-0.4021924058626048</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08093887056926372</v>
       </c>
       <c r="E101" t="n">
-        <v>1.426286351277691</v>
+        <v>1.443401335387918</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4288470832716639</v>
+        <v>0.4320546561106819</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.403150591245776</v>
+        <v>-0.4142383392283789</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1041320357135764</v>
       </c>
       <c r="E102" t="n">
-        <v>1.30398139765211</v>
+        <v>1.327141915510264</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4332104557931195</v>
+        <v>0.4363631357712301</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4128336919098282</v>
+        <v>-0.4262891519595671</v>
       </c>
     </row>
   </sheetData>
